--- a/Combined Analysis.xlsx
+++ b/Combined Analysis.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajta\Desktop\Study Project Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CF4196-1ECA-42D8-9527-1DD7FB85D840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D28F708-6144-4346-9CF8-F5A971F5D3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4095" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{546C66A7-FA93-4350-8DA2-840264FD032E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="699" activeTab="3" xr2:uid="{546C66A7-FA93-4350-8DA2-840264FD032E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Normalized Removal Rate" sheetId="2" r:id="rId1"/>
-    <sheet name="Tanimoto Similarity" sheetId="3" r:id="rId2"/>
-    <sheet name="Romval Rate vs Tanimoto " sheetId="7" r:id="rId3"/>
+    <sheet name="Tanimoto Similarity" sheetId="3" r:id="rId1"/>
+    <sheet name="Normalized Removal Rate in mmol" sheetId="8" r:id="rId2"/>
+    <sheet name="Top 50 Average mmol" sheetId="17" r:id="rId3"/>
     <sheet name="Best Molecular Similarity (BMS)" sheetId="1" r:id="rId4"/>
     <sheet name="Removal Rate predictor" sheetId="4" r:id="rId5"/>
     <sheet name="Comparision Table" sheetId="5" r:id="rId6"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="56">
   <si>
     <t>C02505.mol</t>
   </si>
@@ -167,17 +167,53 @@
     <t>2-Aminobenzoate</t>
   </si>
   <si>
-    <t>R Squared=</t>
+    <t>Visualization</t>
   </si>
   <si>
-    <t>Visualization</t>
+    <t>Geometric mean</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Top 50</t>
+  </si>
+  <si>
+    <t>Top 25</t>
+  </si>
+  <si>
+    <t>Top 10</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Removal Rate mmol/L/d</t>
+  </si>
+  <si>
+    <t>KEGG Id</t>
+  </si>
+  <si>
+    <t>C02505</t>
+  </si>
+  <si>
+    <t>C01179</t>
+  </si>
+  <si>
+    <t>C00082</t>
+  </si>
+  <si>
+    <t>C00568</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,8 +243,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +279,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -326,6 +387,31 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -396,18 +482,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,80 +513,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2800"/>
-              <a:t>Bacterial</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2800" baseline="0"/>
-              <a:t> Strains</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2800"/>
-              <a:t> Normalized Removal Rate</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23209344906971952"/>
-          <c:y val="5.8106922588319738E-2"/>
-          <c:w val="0.73668646368009472"/>
-          <c:h val="0.85308371418261486"/>
+          <c:x val="0.29884317361353724"/>
+          <c:y val="3.2438698899485287E-2"/>
+          <c:w val="0.66032732256590798"/>
+          <c:h val="0.87063971385674432"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -520,25 +531,14 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Best Molecular Similarity (BMS)'!$F$1:$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Molecular Similarity Results</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Removal Rate mg/L/d</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Atenolol</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -546,6 +546,177 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-771C-4D44-9C36-8A07FB61B4BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-771C-4D44-9C36-8A07FB61B4BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-771C-4D44-9C36-8A07FB61B4BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-771C-4D44-9C36-8A07FB61B4BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-771C-4D44-9C36-8A07FB61B4BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-771C-4D44-9C36-8A07FB61B4BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-771C-4D44-9C36-8A07FB61B4BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-771C-4D44-9C36-8A07FB61B4BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-771C-4D44-9C36-8A07FB61B4BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -554,21 +725,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6AB9CE46-E46B-45D1-B339-0953A5788E31}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{A072EA89-C356-44E8-B6C7-FE1C722E3FE4}" type="CELLRANGE">
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{87397142-0680-4414-BC3F-E8C504BC0387}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{EF24CEEE-BB35-4B3D-9B96-696B507071E1}" type="VALUE">
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-US" sz="1200" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -583,1468 +754,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.21639594026855857"/>
-                      <c:h val="7.2174068360659704E-2"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-7F6B-43C1-965C-55704B4905C6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3CCC586A-469C-4A47-B9D9-235F45203C14}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{A25740E8-C118-467F-8E62-2A77D64D87D6}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.2200364408373868"/>
-                      <c:h val="7.2174068360659704E-2"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-7F6B-43C1-965C-55704B4905C6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{65B4073D-3217-4C0A-B2D9-74DF5EB56E4F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{C25ED838-7528-4202-A630-985CA24B7183}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.23898065984072811"/>
-                      <c:h val="0.10617238440396014"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-7F6B-43C1-965C-55704B4905C6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{578D0DD1-EACB-491F-8BBC-3CB5975D1788}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{95A257D7-3BF0-4C93-9B43-90C90FA8F166}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-7F6B-43C1-965C-55704B4905C6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-7F6B-43C1-965C-55704B4905C6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{08F5AF0E-1D3A-4590-A7E6-AC7274E2BFB6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{7F7D1F2C-CB1F-4958-91E6-53FEDF1755EF}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-7F6B-43C1-965C-55704B4905C6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6967F0E3-A08C-4000-BA50-23C15AB7A589}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:fld id="{47731900-0B2B-435A-94A5-9135E1E56FB2}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-7F6B-43C1-965C-55704B4905C6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E97F0FA9-7058-4D56-ABE4-E1CBC223CF24}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{149F17E4-FCC2-4A66-8987-1BFBB8F02155}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-7F6B-43C1-965C-55704B4905C6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{60AF9AB7-1E4E-4445-80C8-324315A602E3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{6B20CC69-4F85-4A6C-9F8F-A8DA80C623C9}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-7F6B-43C1-965C-55704B4905C6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Best Molecular Similarity (BMS)'!$A$3:$B$11</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'Best Molecular Similarity (BMS)'!$A$3:$A$11</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Best Molecular Similarity (BMS)'!$A$3:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Hydrogenophaga sp. PBC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Nitrobacter winogradskyi</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Nitrosomonas europaea</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Novosphingobium aromaticivorans</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sphingobium yanoikuyae</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Trametes versicolor</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Acinetobacter junii</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Pseudomonas psychrophila</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sphingobacterium mizutaii</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Best Molecular Similarity (BMS)'!$F$3:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.57120000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1520000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>115.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.2874999999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.7050000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>'Best Molecular Similarity (BMS)'!$C$3:$C$11</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="9"/>
-                  <c:pt idx="0">
-                    <c:v>2-Phenylacetamide</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2-Phenylacetamide</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>4-Hydroxyphenylpyruvate</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>L-Tyrosine</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>L-Tyrosine</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>L-Tyrosine</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>4-Aminobenzoate</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>4-Aminobenzoate</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>4-Aminobenzoate</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7F6B-43C1-965C-55704B4905C6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="809552240"/>
-        <c:axId val="809556080"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Best Molecular Similarity (BMS)'!$D$1:$D$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Molecular Similarity Results</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Tanimoto Similarity</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="outEnd"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'Best Molecular Similarity (BMS)'!$A$3:$B$11</c15:sqref>
-                        </c15:fullRef>
-                        <c15:levelRef>
-                          <c15:sqref>'Best Molecular Similarity (BMS)'!$A$3:$A$11</c15:sqref>
-                        </c15:levelRef>
-                        <c15:formulaRef>
-                          <c15:sqref>'Best Molecular Similarity (BMS)'!$A$3:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>Hydrogenophaga sp. PBC</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Nitrobacter winogradskyi</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Nitrosomonas europaea</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Novosphingobium aromaticivorans</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Sphingobium yanoikuyae</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Trametes versicolor</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>Acinetobacter junii</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>Pseudomonas psychrophila</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>Sphingobacterium mizutaii</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Best Molecular Similarity (BMS)'!$D$3:$D$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>0.36585365853658541</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.36585365853658541</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.23404255319148939</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.22500000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.22500000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.22500000000000001</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-7F6B-43C1-965C-55704B4905C6}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Best Molecular Similarity (BMS)'!$E$1:$E$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Molecular Similarity Results</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Visualization</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="outEnd"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'Best Molecular Similarity (BMS)'!$A$3:$B$11</c15:sqref>
-                        </c15:fullRef>
-                        <c15:levelRef>
-                          <c15:sqref>'Best Molecular Similarity (BMS)'!$A$3:$A$11</c15:sqref>
-                        </c15:levelRef>
-                        <c15:formulaRef>
-                          <c15:sqref>'Best Molecular Similarity (BMS)'!$A$3:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>Hydrogenophaga sp. PBC</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Nitrobacter winogradskyi</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Nitrosomonas europaea</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Novosphingobium aromaticivorans</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Sphingobium yanoikuyae</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Trametes versicolor</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>Acinetobacter junii</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>Pseudomonas psychrophila</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>Sphingobacterium mizutaii</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Best Molecular Similarity (BMS)'!$E$3:$E$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-7F6B-43C1-965C-55704B4905C6}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Best Molecular Similarity (BMS)'!$G$1:$G$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Molecular Similarity Results</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Removal Rate mg/L/d</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="outEnd"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'Best Molecular Similarity (BMS)'!$A$3:$B$11</c15:sqref>
-                        </c15:fullRef>
-                        <c15:levelRef>
-                          <c15:sqref>'Best Molecular Similarity (BMS)'!$A$3:$A$11</c15:sqref>
-                        </c15:levelRef>
-                        <c15:formulaRef>
-                          <c15:sqref>'Best Molecular Similarity (BMS)'!$A$3:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>Hydrogenophaga sp. PBC</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Nitrobacter winogradskyi</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Nitrosomonas europaea</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Novosphingobium aromaticivorans</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Sphingobium yanoikuyae</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Trametes versicolor</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>Acinetobacter junii</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>Pseudomonas psychrophila</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>Sphingobacterium mizutaii</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Best Molecular Similarity (BMS)'!$G$3:$G$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-7F6B-43C1-965C-55704B4905C6}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="809552240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2400"/>
-                  <a:t>Bacterial Strains</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="809556080"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="809556080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2400"/>
-                  <a:t>Removal Rate mg/L/d</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="809552240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Bacterial Strains tanimoto Similarity</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BE6C7477-1867-4937-895A-168751C56B2B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{632FDDDC-B5A5-4A32-B80A-D251293CC951}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.25735157166787598"/>
-                      <c:h val="7.2174068360659704E-2"/>
+                      <c:w val="0.36946099333383076"/>
+                      <c:h val="7.2174033295960838E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -2062,21 +773,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10C09EF2-6697-4368-8FDA-315779D6D9EC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{F1B182EC-F08C-4341-B7A8-0F5E7CB1C6B2}" type="CELLRANGE">
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{BDD1BF1B-E8E5-44FD-8FAB-7C58219A4ED6}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{D5C61888-CE8F-47EE-A64F-1A71B552F85C}" type="VALUE">
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-US" sz="1200" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2091,8 +802,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.26918319851656769"/>
-                      <c:h val="7.2174068360659704E-2"/>
+                      <c:w val="0.37035504782303386"/>
+                      <c:h val="7.2174033295960838E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -2110,21 +821,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D956B305-4B6F-4F2B-9C90-04B265719D30}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1CB3DEA1-D804-4EDD-861F-E97F3F675E01}" type="CELLRANGE">
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{E540DDB6-B66A-47EB-A1E2-50A43E72E2C1}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{3712A740-28B9-43D1-8DE8-C32C12D04AC3}" type="VALUE">
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-US" sz="1200" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2139,8 +850,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.31725142207053469"/>
-                      <c:h val="0.10617238440396014"/>
+                      <c:w val="0.42870639412053402"/>
+                      <c:h val="0.10617233750635756"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -2158,7 +869,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E435DECF-A244-4566-95ED-D1246E8119B7}" type="CELLRANGE">
+                    <a:fld id="{14E01197-9B77-489C-AE41-ABD578BA6AE0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2167,7 +878,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{C9AD1D14-FB48-4ED4-86F5-970BFA1AB3AA}" type="VALUE">
+                    <a:fld id="{B3612B8C-C877-4860-AAA4-F17D4F10CB77}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -2201,7 +912,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C23244D-1FAB-4325-8EDF-AF6FF6786DB5}" type="CELLRANGE">
+                    <a:fld id="{CDA0EC18-469D-4D7C-BB02-D7C619B307BD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2210,7 +921,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{F5B9EFBE-A65C-4D0C-A76A-7E21068EBD13}" type="VALUE">
+                    <a:fld id="{43920B97-59F9-45D2-8B46-0FEA2926F795}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -2244,7 +955,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05730E1F-CE7B-4236-8998-B75305F0AB84}" type="CELLRANGE">
+                    <a:fld id="{DF765297-9C04-4CF9-9EE1-E81700858AC4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2253,7 +964,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{0546C632-CD28-45EE-972E-8E7DAC0D1D66}" type="VALUE">
+                    <a:fld id="{6F831080-BF5B-4F57-83CD-C4CEDB848FD4}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -2287,8 +998,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{343FEC3E-B8A4-4C34-8702-E44EA8A37EF6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{87BB43C7-C69A-4781-B9AC-900DA20DD69D}" type="CELLRANGE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2296,7 +1007,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{C0BAAD3B-12C9-4FC5-BC0C-B6D1A51EA4CB}" type="VALUE">
+                    <a:fld id="{29EE09C7-5ED5-4153-8F2F-4CA68DA3C31B}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -2314,8 +1025,13 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.25472069920766643"/>
+                      <c:h val="9.839820823226969E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2330,8 +1046,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{915795D8-01FE-4F0B-B826-8E9A687003FC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{DCEA2CC0-3E02-4DB2-B949-EE41CE0E922F}" type="CELLRANGE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2339,7 +1055,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{FF936A73-3936-42AF-9F5A-922CD28E4A26}" type="VALUE">
+                    <a:fld id="{1492D6C6-7E5F-4BB3-83B3-BF4D4303C0E4}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -2357,8 +1073,13 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.25745507416561464"/>
+                      <c:h val="9.839820823226969E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2373,8 +1094,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93BB326C-77A1-49D2-B323-5224A9DE4FD9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{14F31A28-27BD-4D6C-B88A-AF4742DBD8AD}" type="CELLRANGE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2382,7 +1103,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{62F34D02-6B48-40D1-89DE-4EA17903340B}" type="VALUE">
+                    <a:fld id="{ABF5B35A-A437-4A34-9191-A3C14D965970}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -2400,8 +1121,13 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.25608788668664051"/>
+                      <c:h val="9.839820823226969E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2423,7 +1149,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2579,363 +1305,23 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="658900192"/>
-        <c:axId val="658901632"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="658900192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Bacterial Strains</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
+            <c:strRef>
+              <c:f>'Best Molecular Similarity (BMS)'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ibuprofen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="658901632"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="658901632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2400"/>
-                  <a:t>Tanimoto Similarity Score</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.49298698413551556"/>
-              <c:y val="0.93831847965398074"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="658900192"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3001,89 +1387,38 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Best Molecular Similarity (BMS)'!$A$3:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Hydrogenophaga sp. PBC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Nitrobacter winogradskyi</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Nitrosomonas europaea</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Novosphingobium aromaticivorans</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sphingobium yanoikuyae</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Trametes versicolor</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Acinetobacter junii</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Pseudomonas psychrophila</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sphingobacterium mizutaii</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Best Molecular Similarity (BMS)'!$D$3:$D$11</c:f>
+              <c:f>'Best Molecular Similarity (BMS)'!$A$13:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.36585365853658541</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36585365853658541</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.23404255319148939</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.22500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.22500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.22500000000000001</c:v>
-                </c:pt>
+                <c:ptCount val="3"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D3B6-408A-A02F-2275EEC69693}"/>
+              <c16:uniqueId val="{00000014-469A-4755-9101-F48D183A8438}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Molecular Similarity (BMS)'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sulfamethoxazole</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3107,6 +1442,600 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Molecular Similarity (BMS)'!$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-469A-4755-9101-F48D183A8438}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="658900192"/>
+        <c:axId val="658901632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="658900192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Bacterial Strains</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.6405005688282138E-3"/>
+              <c:y val="0.35457485685326401"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658901632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="658901632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Tanimoto Similarity Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49389710927772251"/>
+              <c:y val="0.95224363272375889"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658900192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79969344072270765"/>
+          <c:y val="3.6095147792389828E-2"/>
+          <c:w val="0.15844081947094496"/>
+          <c:h val="0.17215019823606686"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22566906453137225"/>
+          <c:y val="1.9027440237935716E-2"/>
+          <c:w val="0.75392547638858531"/>
+          <c:h val="0.88802632522331193"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Molecular Similarity (BMS)'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Atenolol</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-16B8-4336-8517-32FAFBDFA087}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-16B8-4336-8517-32FAFBDFA087}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-16B8-4336-8517-32FAFBDFA087}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-16B8-4336-8517-32FAFBDFA087}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-16B8-4336-8517-32FAFBDFA087}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-16B8-4336-8517-32FAFBDFA087}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3188,38 +2117,235 @@
             <c:numRef>
               <c:f>'Best Molecular Similarity (BMS)'!$F$3:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.57120000000000004</c:v>
+                  <c:v>2.1446271682811449</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1520000000000001E-2</c:v>
+                  <c:v>4.3252984906510486E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>2.8159495381842761</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.5</c:v>
+                  <c:v>133.31394221446578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1211.944929222416</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80</c:v>
+                  <c:v>387.82237735117315</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>115.2</c:v>
+                  <c:v>454.83259633607076</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2874999999999996</c:v>
+                  <c:v>16.927905874921034</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7050000000000001</c:v>
+                  <c:v>26.47267845862287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D3B6-408A-A02F-2275EEC69693}"/>
+              <c16:uniqueId val="{00000000-16B8-4336-8517-32FAFBDFA087}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Molecular Similarity (BMS)'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ibuprofen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Molecular Similarity (BMS)'!$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-16B8-4336-8517-32FAFBDFA087}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Molecular Similarity (BMS)'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sulfamethoxazole</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Molecular Similarity (BMS)'!$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-16B8-4336-8517-32FAFBDFA087}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3233,16 +2359,30 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1254272032"/>
-        <c:axId val="1254273472"/>
+        <c:axId val="831775616"/>
+        <c:axId val="831770336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1254272032"/>
+        <c:axId val="831775616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3250,7 +2390,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3263,7 +2403,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Bacterial Strains</a:t>
                 </a:r>
               </a:p>
@@ -3282,7 +2429,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3320,7 +2467,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3335,7 +2482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1254273472"/>
+        <c:crossAx val="831770336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3343,7 +2490,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1254273472"/>
+        <c:axId val="831770336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3370,7 +2517,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3383,12 +2530,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Removal</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Rate in mg/L/d</a:t>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Removal Rate mmol/L/d</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3406,7 +2556,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3422,7 +2572,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3438,7 +2588,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3453,7 +2603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1254272032"/>
+        <c:crossAx val="831775616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3466,7 +2616,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8166991919450689"/>
+          <c:y val="2.4276991718564709E-2"/>
+          <c:w val="0.15869425987141303"/>
+          <c:h val="0.15620786246010299"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3480,7 +2640,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3498,13 +2658,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3522,6 +2675,1038 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5642079134917291E-2"/>
+          <c:y val="2.579911441632322E-2"/>
+          <c:w val="0.81550998308972567"/>
+          <c:h val="0.63344285694271729"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Molecular Similarity (BMS)'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Removal Rate mmol/L/d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Best Molecular Similarity (BMS)'!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Hydrogenophaga sp. PBC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nitrobacter winogradskyi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nitrosomonas europaea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Novosphingobium aromaticivorans</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sphingobium yanoikuyae</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Trametes versicolor</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Acinetobacter junii</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pseudomonas psychrophila</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sphingobacterium mizutaii</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Molecular Similarity (BMS)'!$J$3:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.1446271682811449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3252984906510486E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8159495381842761</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133.31394221446578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1211.944929222416</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>387.82237735117315</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>454.83259633607076</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.927905874921034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.47267845862287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F199-4681-A21C-443D1FC71604}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1843996159"/>
+        <c:axId val="1844001919"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Molecular Similarity (BMS)'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Atenolol</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Molecular Similarity (BMS)'!$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F199-4681-A21C-443D1FC71604}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Molecular Similarity (BMS)'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ibuprofen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Molecular Similarity (BMS)'!$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F199-4681-A21C-443D1FC71604}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Molecular Similarity (BMS)'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sulfamethoxazole</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Molecular Similarity (BMS)'!$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F199-4681-A21C-443D1FC71604}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1850243279"/>
+        <c:axId val="1593475295"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Molecular Similarity (BMS)'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Top 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Best Molecular Similarity (BMS)'!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Hydrogenophaga sp. PBC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nitrobacter winogradskyi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nitrosomonas europaea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Novosphingobium aromaticivorans</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sphingobium yanoikuyae</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Trametes versicolor</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Acinetobacter junii</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pseudomonas psychrophila</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sphingobacterium mizutaii</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Molecular Similarity (BMS)'!$N$3:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.19019570927604282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1840187155116558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1741072869519352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26265932487372573</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26361664543635938</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2542841397088404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13408533324565097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13564468589288878</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13231804604972505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F199-4681-A21C-443D1FC71604}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1850243279"/>
+        <c:axId val="1593475295"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1843996159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Bacterial</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> Strains</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1844001919"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1844001919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1400"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Removal Rate mmol/L/d</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1843996159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1593475295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Tanimoto similarity score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1850243279"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1850243279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1593475295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32669541377428496"/>
+          <c:y val="0.89637780947836598"/>
+          <c:w val="0.35481124753907606"/>
+          <c:h val="4.2918585802147122E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -3615,552 +3800,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4663,7 +4303,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5169,10 +4809,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3B1854CC-0492-4D6A-A428-1C6D635D04B4}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7AE89BDA-7BD4-4395-A87E-C5517276A3E4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="110" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5180,10 +4820,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7AE89BDA-7BD4-4395-A87E-C5517276A3E4}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7F08D79C-FE7F-4D5D-910D-E06C695F9E93}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0"/>
+    <sheetView zoomScale="110" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5191,10 +4831,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1A05FD7E-6FBE-4F23-BAA6-51DBD546B1FE}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C96A8416-B5EC-449B-AEC4-FB2732FCAB77}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5205,40 +4845,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="13954125" cy="9120187"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CFE6854-5664-7281-B8AD-B61391B9BF73}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="13954125" cy="9120187"/>
+    <xdr:ext cx="9294091" cy="6067136"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5267,17 +4874,50 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="13954125" cy="9120187"/>
+    <xdr:ext cx="9294091" cy="6067136"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47074C17-5AA3-FAAE-96FF-DAF03CAF0840}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CE88F66-0A63-2A65-4DAA-BEC44680E6B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9290210" cy="6067185"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{999AD72D-4F2E-A079-88D7-6923AE8C38E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5305,7 +4945,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
@@ -5329,7 +4969,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5762625" y="438150"/>
+          <a:off x="5838825" y="438150"/>
           <a:ext cx="1371600" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5379,7 +5019,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
@@ -5403,7 +5043,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="3292475"/>
+          <a:off x="5848350" y="3286125"/>
           <a:ext cx="1371600" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5416,7 +5056,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>120650</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
@@ -5440,7 +5080,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="4692650"/>
+          <a:off x="5816600" y="4683125"/>
           <a:ext cx="1371600" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5490,7 +5130,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
@@ -5514,7 +5154,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="7524750"/>
+          <a:off x="5822950" y="7508875"/>
           <a:ext cx="1371600" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5527,7 +5167,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>111125</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
@@ -5551,7 +5191,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5743575" y="8963025"/>
+          <a:off x="5807075" y="8943975"/>
           <a:ext cx="1371600" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5564,7 +5204,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>120650</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
@@ -5588,7 +5228,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5695950" y="10363200"/>
+          <a:off x="5816600" y="10340975"/>
           <a:ext cx="1371600" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5601,7 +5241,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>98425</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
@@ -5625,7 +5265,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5686425" y="11791950"/>
+          <a:off x="5794375" y="11766550"/>
           <a:ext cx="1371600" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7282,58 +6922,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D80FA5E-B2EE-4A38-9BA1-EB8F2ECAAA61}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" customWidth="1"/>
     <col min="3" max="3" width="23.26953125" customWidth="1"/>
     <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.6328125" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="23.1796875" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="L1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>37</v>
@@ -7342,16 +7025,45 @@
         <v>0.36585365853658541</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1">
+      <c r="F3" s="20">
+        <f t="shared" ref="F3:F11" si="0">(H3*1000)/I3</f>
+        <v>2.1446271682811449</v>
+      </c>
+      <c r="H3" s="1">
         <v>0.57120000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="1">
+        <v>266.33999999999997</v>
+      </c>
+      <c r="J3" s="20">
+        <f t="shared" ref="J3:J11" si="1">(H3*1000)/I3</f>
+        <v>2.1446271682811449</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.23546333437192651</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.20865776749536846</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.19019570927604282</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.23220991619936512</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.20624669483163258</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.18816989880512916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>37</v>
@@ -7360,16 +7072,45 @@
         <v>0.36585365853658541</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1">
+      <c r="F4" s="20">
+        <f t="shared" si="0"/>
+        <v>4.3252984906510486E-2</v>
+      </c>
+      <c r="H4" s="1">
         <v>1.1520000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="1">
+        <v>266.33999999999997</v>
+      </c>
+      <c r="J4" s="20">
+        <f t="shared" si="1"/>
+        <v>4.3252984906510486E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.22698474465860605</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.20111486754670008</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.1840187155116558</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.22324989326608852</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.19865826675168827</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.18208342865401289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>41</v>
@@ -7378,16 +7119,45 @@
         <v>0.23404255319148939</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1">
+      <c r="F5" s="20">
+        <f t="shared" si="0"/>
+        <v>2.8159495381842761</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="1">
+        <v>266.33999999999997</v>
+      </c>
+      <c r="J5" s="20">
+        <f t="shared" si="1"/>
+        <v>2.8159495381842761</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.20629868012120331</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.18742939043862894</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.1741072869519352</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.2058551206138067</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.18660117007705646</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.17318118674138719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -7396,16 +7166,45 @@
         <v>0.4</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1">
+      <c r="F6" s="20">
+        <f t="shared" si="0"/>
+        <v>133.31394221446578</v>
+      </c>
+      <c r="H6" s="1">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="1">
+        <v>206.28</v>
+      </c>
+      <c r="J6" s="20">
+        <f t="shared" si="1"/>
+        <v>133.31394221446578</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.32444597780461154</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.28967626862976265</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.26265932487372573</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.32243973403451026</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.28745438405292062</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.26018179183676343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -7414,14 +7213,45 @@
         <v>0.4</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="20">
+        <f t="shared" si="0"/>
+        <v>1211.944929222416</v>
+      </c>
+      <c r="H7" s="1">
+        <v>250</v>
+      </c>
+      <c r="I7" s="1">
+        <v>206.28</v>
+      </c>
+      <c r="J7" s="20">
+        <f t="shared" si="1"/>
+        <v>1211.944929222416</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.32986750125270048</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.29070202086614105</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.26361664543635938</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.32734727875304515</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.28798025322420606</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.26091655777900341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>39</v>
@@ -7430,16 +7260,45 @@
         <v>0.4</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1">
+      <c r="F8" s="20">
+        <f t="shared" si="0"/>
+        <v>387.82237735117315</v>
+      </c>
+      <c r="H8" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="1">
+        <v>206.28</v>
+      </c>
+      <c r="J8" s="20">
+        <f t="shared" si="1"/>
+        <v>387.82237735117315</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.3220447888343998</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.28109099823686284</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.2542841397088404</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.31961338036044246</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.27817367391016384</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.25147451434829549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>40</v>
@@ -7448,16 +7307,45 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1">
+      <c r="F9" s="20">
+        <f t="shared" si="0"/>
+        <v>454.83259633607076</v>
+      </c>
+      <c r="H9" s="1">
         <v>115.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="1">
+        <v>253.28</v>
+      </c>
+      <c r="J9" s="20">
+        <f t="shared" si="1"/>
+        <v>454.83259633607076</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.15872883058191611</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.14461410520486948</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.13408533324565097</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.15708417117753362</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.14352762166815466</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.13313830127451406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>40</v>
@@ -7466,16 +7354,45 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1">
+      <c r="F10" s="20">
+        <f t="shared" si="0"/>
+        <v>16.927905874921034</v>
+      </c>
+      <c r="H10" s="1">
         <v>4.2874999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I10" s="1">
+        <v>253.28</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="1"/>
+        <v>16.927905874921034</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.1621447043319712</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.14683144747548513</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.13564468589288878</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.16054241156603447</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.14569125635060165</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.134625913612929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>40</v>
@@ -7484,22 +7401,63 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1">
+      <c r="F11" s="20">
+        <f t="shared" si="0"/>
+        <v>26.47267845862287</v>
+      </c>
+      <c r="H11" s="1">
         <v>6.7050000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13">
-        <f>RSQ(F3:F11,D3:D11)</f>
-        <v>8.853232141892111E-6</v>
+      <c r="I11" s="1">
+        <v>253.28</v>
+      </c>
+      <c r="J11" s="20">
+        <f t="shared" si="1"/>
+        <v>26.47267845862287</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.15531757773966801</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.14213364882027318</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.13231804604972505</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.15385659008781061</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.14117590271895486</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.13147389703946816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="15"/>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="16"/>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
+      <c r="B15" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="P1:R1"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7513,7 +7471,7 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -7549,7 +7507,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="240.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7564,7 +7522,7 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="231" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
@@ -7577,7 +7535,7 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="239.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -7590,7 +7548,7 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="237.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -7603,7 +7561,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="240.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="26" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -7618,7 +7576,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="231" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
@@ -7631,7 +7589,7 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="239.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
@@ -7644,7 +7602,7 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="237.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
@@ -7657,7 +7615,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="235" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -7672,7 +7630,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="236" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
@@ -7685,7 +7643,7 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="234" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -7698,7 +7656,7 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
@@ -7711,7 +7669,7 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="234" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -7726,7 +7684,7 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="229.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -7739,7 +7697,7 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="232.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
@@ -7752,7 +7710,7 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="235.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
@@ -7765,7 +7723,7 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="233.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -7780,7 +7738,7 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="229" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
@@ -7793,7 +7751,7 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="229" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
@@ -7806,7 +7764,7 @@
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="233.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
@@ -7819,7 +7777,7 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="230" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -7834,7 +7792,7 @@
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="229.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="13"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
@@ -7847,7 +7805,7 @@
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="232" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
@@ -7860,7 +7818,7 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="235" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="14"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
@@ -7873,7 +7831,7 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" ht="229.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -7888,7 +7846,7 @@
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="231" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -7901,7 +7859,7 @@
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="232" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="13"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -7914,7 +7872,7 @@
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="233.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="14"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
@@ -7927,7 +7885,7 @@
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="229" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -7942,7 +7900,7 @@
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" ht="231.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="13"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
@@ -7955,7 +7913,7 @@
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="232.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="13"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
@@ -7968,7 +7926,7 @@
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="235.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="14"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="1" t="s">
         <v>25</v>
       </c>
@@ -7981,7 +7939,7 @@
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="230" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -7996,7 +7954,7 @@
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="231" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="13"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="1" t="s">
         <v>23</v>
       </c>
@@ -8009,7 +7967,7 @@
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="232.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="13"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="1" t="s">
         <v>24</v>
       </c>
@@ -8022,7 +7980,7 @@
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="234.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="14"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="1" t="s">
         <v>25</v>
       </c>
@@ -8055,8 +8013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F818342-F09D-4871-99F2-9D6EC4031E06}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8092,7 +8050,7 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -8112,7 +8070,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
@@ -8130,7 +8088,7 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
@@ -8148,7 +8106,7 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
@@ -8166,7 +8124,7 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="42" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -8186,7 +8144,7 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
@@ -8204,7 +8162,7 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
@@ -8222,7 +8180,7 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
@@ -8240,7 +8198,7 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -8260,7 +8218,7 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="8" t="s">
         <v>23</v>
       </c>
@@ -8278,7 +8236,7 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
@@ -8296,7 +8254,7 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
@@ -8314,7 +8272,7 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="30" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -8334,7 +8292,7 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
@@ -8352,7 +8310,7 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
@@ -8370,7 +8328,7 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="5" t="s">
         <v>25</v>
       </c>
@@ -8388,7 +8346,7 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -8408,7 +8366,7 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="7" t="s">
         <v>23</v>
       </c>
@@ -8426,7 +8384,7 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
@@ -8444,7 +8402,7 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="7" t="s">
         <v>25</v>
       </c>
@@ -8462,7 +8420,7 @@
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="36" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -8482,7 +8440,7 @@
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="8" t="s">
         <v>23</v>
       </c>
@@ -8500,7 +8458,7 @@
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="26"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="8" t="s">
         <v>24</v>
       </c>
@@ -8518,7 +8476,7 @@
       <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="27"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="8" t="s">
         <v>25</v>
       </c>
@@ -8536,7 +8494,7 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -8556,7 +8514,7 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="5" t="s">
         <v>23</v>
       </c>
@@ -8574,7 +8532,7 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="5" t="s">
         <v>24</v>
       </c>
@@ -8592,7 +8550,7 @@
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="5" t="s">
         <v>25</v>
       </c>
@@ -8610,7 +8568,7 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -8630,7 +8588,7 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="23"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="7" t="s">
         <v>23</v>
       </c>
@@ -8648,7 +8606,7 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="23"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="7" t="s">
         <v>24</v>
       </c>
@@ -8666,7 +8624,7 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="24"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="7" t="s">
         <v>25</v>
       </c>
@@ -8684,7 +8642,7 @@
       <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="36" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -8704,7 +8662,7 @@
       <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="26"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="8" t="s">
         <v>23</v>
       </c>
@@ -8722,7 +8680,7 @@
       <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="26"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="8" t="s">
         <v>24</v>
       </c>
@@ -8740,7 +8698,7 @@
       <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="27"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="8" t="s">
         <v>25</v>
       </c>
